--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N100_T0_a50_ccg.xlsx
@@ -471,28 +471,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-790.4501666393605</v>
+        <v>-411.5189726818494</v>
       </c>
       <c r="C2">
-        <v>10.037427699</v>
+        <v>15.515153592</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>652</v>
+        <v>1204</v>
       </c>
       <c r="H2">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,28 +500,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-796.6855908813169</v>
+        <v>-411.39604929747</v>
       </c>
       <c r="C3">
-        <v>0.133302685</v>
+        <v>2.087831791</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H3">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,28 +529,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-795.4333667618575</v>
+        <v>-412.34762188775494</v>
       </c>
       <c r="C4">
-        <v>0.111827925</v>
+        <v>3.424428263</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>652</v>
+        <v>2308</v>
       </c>
       <c r="H4">
-        <v>605</v>
+        <v>2420</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,28 +558,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-808.2943571304373</v>
+        <v>-416.71129461891667</v>
       </c>
       <c r="C5">
-        <v>0.12535152</v>
+        <v>12.33823612</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H5">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,28 +587,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-786.6718742477501</v>
+        <v>-408.2905898186462</v>
       </c>
       <c r="C6">
-        <v>0.173805614</v>
+        <v>2.134491656</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H6">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,28 +616,28 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-781.4694215272532</v>
+        <v>-403.9902935908759</v>
       </c>
       <c r="C7">
-        <v>0.142311574</v>
+        <v>3.447364775</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H7">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-778.6638845224827</v>
+        <v>-400.1919964156508</v>
       </c>
       <c r="C8">
-        <v>0.12474767</v>
+        <v>3.729217923</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -674,28 +674,28 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-800.5274282274553</v>
+        <v>-412.09265747622965</v>
       </c>
       <c r="C9">
-        <v>0.136714268</v>
+        <v>9.611153647</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>652</v>
+        <v>1756</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>1815</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,28 +703,28 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-793.5538497949096</v>
+        <v>-408.4459826348807</v>
       </c>
       <c r="C10">
-        <v>0.111892127</v>
+        <v>7.337151256</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>652</v>
+        <v>3412</v>
       </c>
       <c r="H10">
-        <v>605</v>
+        <v>3630</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,28 +732,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-783.4743422616683</v>
+        <v>-403.1039288610207</v>
       </c>
       <c r="C11">
-        <v>0.121490708</v>
+        <v>16.283771156</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>1204</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>1210</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.014902809103637695</v>
+        <v>0.04495266033630371</v>
       </c>
       <c r="E2">
-        <v>27.48782</v>
+        <v>82.46345</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,15 +808,100 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-793.5538497949096</v>
+        <v>-437.01268675914815</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.00988463101518041</v>
       </c>
       <c r="D3">
-        <v>0.04857503030041504</v>
+        <v>0.1946730905822754</v>
       </c>
       <c r="E3">
+        <v>6.51722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-425.08312443504525</v>
+      </c>
+      <c r="C4">
+        <v>0.0073529907014926515</v>
+      </c>
+      <c r="D4">
+        <v>0.25574909354455566</v>
+      </c>
+      <c r="E4">
+        <v>2.94855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-414.31946295540973</v>
+      </c>
+      <c r="C5">
+        <v>0.0984312860554829</v>
+      </c>
+      <c r="D5">
+        <v>0.5628914516223145</v>
+      </c>
+      <c r="E5">
+        <v>3.33218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-408.6154590496442</v>
+      </c>
+      <c r="C6">
+        <v>0.08961188463878143</v>
+      </c>
+      <c r="D6">
+        <v>2.319740486929199</v>
+      </c>
+      <c r="E6">
+        <v>0.55677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-408.5212229265284</v>
+      </c>
+      <c r="C7">
+        <v>0.0986925316228599</v>
+      </c>
+      <c r="D7">
+        <v>1.6727400641950683</v>
+      </c>
+      <c r="E7">
+        <v>0.74471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-408.4459826348807</v>
+      </c>
+      <c r="C8">
+        <v>0.04149298119551114</v>
+      </c>
+      <c r="D8">
+        <v>1.7726875184910889</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -827,7 +912,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -861,10 +946,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.016752884741821288</v>
+        <v>0.01759576790344238</v>
       </c>
       <c r="E2">
-        <v>28.12752</v>
+        <v>84.38256</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,15 +957,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-783.4743422616683</v>
+        <v>-403.581414670978</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.05317116477661133</v>
+        <v>5.144143918237793</v>
       </c>
       <c r="E3">
+        <v>1.57971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-403.1039288610207</v>
+      </c>
+      <c r="C4">
+        <v>0.04482826100579968</v>
+      </c>
+      <c r="D4">
+        <v>10.998795292940308</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -891,7 +993,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -925,10 +1027,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>1.0270626776971437</v>
+        <v>0.8748163855462646</v>
       </c>
       <c r="E2">
-        <v>28.30978</v>
+        <v>84.92934</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,15 +1038,32 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-790.4501666393605</v>
+        <v>-411.8636030575577</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.06183461137182617</v>
+        <v>1.1653051579102782</v>
       </c>
       <c r="E3">
+        <v>1.18533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-411.5189726818494</v>
+      </c>
+      <c r="C4">
+        <v>0.0</v>
+      </c>
+      <c r="D4">
+        <v>6.096441480468628</v>
+      </c>
+      <c r="E4">
         <v>0.0</v>
       </c>
     </row>
@@ -955,7 +1074,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -989,10 +1108,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.01638497794189453</v>
+        <v>0.03201625409387207</v>
       </c>
       <c r="E2">
-        <v>27.32431</v>
+        <v>81.97293</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,15 +1119,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-796.6855908813169</v>
+        <v>-417.900310782136</v>
       </c>
       <c r="C3">
-        <v>1.426997538587814e-14</v>
+        <v>0.07686770769276234</v>
       </c>
       <c r="D3">
-        <v>0.06124766030310058</v>
+        <v>0.30459583754467773</v>
       </c>
       <c r="E3">
+        <v>1.93166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-415.4220225388203</v>
+      </c>
+      <c r="C4">
+        <v>0.09923403939962108</v>
+      </c>
+      <c r="D4">
+        <v>0.44836400724890135</v>
+      </c>
+      <c r="E4">
+        <v>2.62995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-411.39604929747</v>
+      </c>
+      <c r="C5">
+        <v>0.08528937732092581</v>
+      </c>
+      <c r="D5">
+        <v>1.1096881597039796</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1019,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1053,10 +1206,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.014618755125488282</v>
+        <v>0.02876627896044922</v>
       </c>
       <c r="E2">
-        <v>28.81444</v>
+        <v>86.44331</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,15 +1217,66 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-795.4333667618575</v>
+        <v>-420.50506127605115</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.07256599914889564</v>
       </c>
       <c r="D3">
-        <v>0.04993750677050782</v>
+        <v>0.1901683605397949</v>
       </c>
       <c r="E3">
+        <v>2.56965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-416.31345173383806</v>
+      </c>
+      <c r="C4">
+        <v>0.02562620199290218</v>
+      </c>
+      <c r="D4">
+        <v>0.27396762162390137</v>
+      </c>
+      <c r="E4">
+        <v>1.41192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-412.41404327794714</v>
+      </c>
+      <c r="C5">
+        <v>0.07066505111364295</v>
+      </c>
+      <c r="D5">
+        <v>0.845777416161621</v>
+      </c>
+      <c r="E5">
+        <v>0.19822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-412.34762188775494</v>
+      </c>
+      <c r="C6">
+        <v>0.01610810555678573</v>
+      </c>
+      <c r="D6">
+        <v>1.7630294423380126</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -1083,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1117,10 +1321,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.016780063353881835</v>
+        <v>0.01973398877355957</v>
       </c>
       <c r="E2">
-        <v>28.51958</v>
+        <v>85.55874</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,15 +1332,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-808.2943571304373</v>
+        <v>-417.96361691595314</v>
       </c>
       <c r="C3">
-        <v>1.4065029245683068e-14</v>
+        <v>0.08153552595003252</v>
       </c>
       <c r="D3">
-        <v>0.05333275269665527</v>
+        <v>2.2727969560262453</v>
       </c>
       <c r="E3">
+        <v>2.36443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-416.89458935220637</v>
+      </c>
+      <c r="C4">
+        <v>0.002793873737720017</v>
+      </c>
+      <c r="D4">
+        <v>3.208835709969849</v>
+      </c>
+      <c r="E4">
+        <v>1.00555</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-416.71129461891667</v>
+      </c>
+      <c r="C5">
+        <v>0.04678112742630615</v>
+      </c>
+      <c r="D5">
+        <v>6.601189085973511</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1147,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1181,10 +1419,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.023521002376708986</v>
+        <v>0.04153228308178711</v>
       </c>
       <c r="E2">
-        <v>28.20302</v>
+        <v>84.60907</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,15 +1430,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-786.6718742477501</v>
+        <v>-448.74515541187657</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.03707763961206097</v>
       </c>
       <c r="D3">
-        <v>0.06571422555310058</v>
+        <v>0.1310620778588867</v>
       </c>
       <c r="E3">
+        <v>5.70689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-409.5100971023726</v>
+      </c>
+      <c r="C4">
+        <v>0.09813048616550464</v>
+      </c>
+      <c r="D4">
+        <v>0.5924801040747071</v>
+      </c>
+      <c r="E4">
+        <v>1.80117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-408.2905898186462</v>
+      </c>
+      <c r="C5">
+        <v>0.09134710180965602</v>
+      </c>
+      <c r="D5">
+        <v>1.13146167544458</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1211,7 +1483,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1245,10 +1517,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.015705966313476562</v>
+        <v>0.03483292279101562</v>
       </c>
       <c r="E2">
-        <v>29.93936</v>
+        <v>89.81808</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,15 +1528,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-781.4694215272532</v>
+        <v>-406.3874269719741</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09505104843497333</v>
       </c>
       <c r="D3">
-        <v>0.050948548809814455</v>
+        <v>0.6766587302193603</v>
       </c>
       <c r="E3">
+        <v>1.9821</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-404.8711513239143</v>
+      </c>
+      <c r="C4">
+        <v>0.09681569305614947</v>
+      </c>
+      <c r="D4">
+        <v>0.9284179101071778</v>
+      </c>
+      <c r="E4">
+        <v>1.56973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-403.9902935908759</v>
+      </c>
+      <c r="C5">
+        <v>0.06015974628817084</v>
+      </c>
+      <c r="D5">
+        <v>1.5309666000687256</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
@@ -1309,10 +1615,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.013700201455566406</v>
+        <v>0.03952600652770996</v>
       </c>
       <c r="E2">
-        <v>27.84055</v>
+        <v>83.52166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1626,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-778.6638845224827</v>
+        <v>-400.1919964156508</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.01569326655826834</v>
       </c>
       <c r="D3">
-        <v>0.06684599036779784</v>
+        <v>3.593181616417114</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1339,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -1373,10 +1679,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.016613698616210936</v>
+        <v>0.04525379928613281</v>
       </c>
       <c r="E2">
-        <v>28.42535</v>
+        <v>85.27605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,15 +1690,49 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-800.5274282274553</v>
+        <v>-412.2204295049945</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.05036223552849459</v>
       </c>
       <c r="D3">
-        <v>0.0535954401743164</v>
+        <v>1.5196886937770997</v>
       </c>
       <c r="E3">
+        <v>0.59535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-412.146407489357</v>
+      </c>
+      <c r="C4">
+        <v>0.017960126375595013</v>
+      </c>
+      <c r="D4">
+        <v>3.4196701221275636</v>
+      </c>
+      <c r="E4">
+        <v>0.27881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-412.09265747622965</v>
+      </c>
+      <c r="C5">
+        <v>0.07472355144900465</v>
+      </c>
+      <c r="D5">
+        <v>4.365206761945313</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
     </row>
